--- a/excel/condition_template.xlsx
+++ b/excel/condition_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>CfgId</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Op</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>#Comment</t>
   </si>
   <si>
     <t>cs</t>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1237,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1248,9 +1248,6 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/excel/condition_template.xlsx
+++ b/excel/condition_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>CfgId</t>
   </si>
@@ -41,10 +41,41 @@
     <t>Op</t>
   </si>
   <si>
+    <t>ClientCheck</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
     <t>#Comment</t>
   </si>
   <si>
     <t>cs</t>
+  </si>
+  <si>
+    <t>#注释行</t>
+  </si>
+  <si>
+    <t>条件类型
+enum ConditionType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type=1:玩家属性
+Type=2:活动属性
+</t>
+  </si>
+  <si>
+    <t>比较符,支持
+&gt; &gt;= = &lt; &lt;= != [] ![]</t>
+  </si>
+  <si>
+    <t>客户端是否可以直接判断条件</t>
+  </si>
+  <si>
+    <t>K_V格式的动态属性</t>
+  </si>
+  <si>
+    <t>注释</t>
   </si>
   <si>
     <t>Level</t>
@@ -675,9 +706,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1212,15 +1246,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1236,53 +1278,88 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" ht="63" customHeight="1" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/excel/condition_template.xlsx
+++ b/excel/condition_template.xlsx
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1341,6 +1341,9 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
@@ -1357,6 +1360,9 @@
       </c>
       <c r="D5" t="s">
         <v>16</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>

--- a/excel/condition_template.xlsx
+++ b/excel/condition_template.xlsx
@@ -26,6 +26,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gy</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PlayerPropertyCompare   = 1; // 玩家属性值比较
+ActivityPropertyCompare = 2; // 活动属性值比较</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>&gt;   大于
+&gt;=  大于等于
+=   等于,可以填多个值
+&lt;   小于
+&lt;=  小于等于
+!=  不等于,可以填多个值
+[]  在区间里,可以配置多个区间,如[1,3,8,15]表示[1,3] [8,15]
+![] 不在区间里,可以配置多个区间</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
@@ -60,8 +102,8 @@
 enum ConditionType</t>
   </si>
   <si>
-    <t xml:space="preserve">Type=1:玩家属性
-Type=2:活动属性
+    <t xml:space="preserve">Type=1:玩家属性名
+Type=2:活动属性名
 </t>
   </si>
   <si>
@@ -103,7 +145,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +296,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1249,17 +1296,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1371,5 +1419,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>